--- a/RawData/DegradationKineticsOfTheMainCarbohydratesInBirchWoodDuringHotWaterExtractionInABatchReactor.xlsx
+++ b/RawData/DegradationKineticsOfTheMainCarbohydratesInBirchWoodDuringHotWaterExtractionInABatchReactor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164CBC34-9FA2-43D4-A78B-F7160EA4CDC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F180A9-9241-48BF-925D-15B00F1A08D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3233,29 +3241,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFDDB0-64D9-428A-B667-8EAE0E841A52}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="21.44140625" customWidth="1"/>
+    <col min="25" max="25" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3266,73 +3274,76 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>6.5076122062590382</v>
       </c>
@@ -3342,38 +3353,41 @@
       <c r="C3">
         <v>40</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2.7397260273972499</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J3">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N3">
-        <v>20.9</v>
-      </c>
-      <c r="T3">
+      <c r="K3">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O3">
+        <v>20.9</v>
+      </c>
+      <c r="U3">
         <v>0.55272236982267853</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>5.1963048498843242E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>15.069256041875388</v>
       </c>
@@ -3383,38 +3397,41 @@
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>11.301369863013599</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J4">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N4">
-        <v>20.9</v>
-      </c>
-      <c r="T4">
+      <c r="K4">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O4">
+        <v>20.9</v>
+      </c>
+      <c r="U4">
         <v>3.038315854692101</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>7.7944572748265745E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>25.685694398039789</v>
       </c>
@@ -3424,38 +3441,41 @@
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>21.917808219177999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J5">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N5">
-        <v>20.9</v>
-      </c>
-      <c r="T5">
+      <c r="K5">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O5">
+        <v>20.9</v>
+      </c>
+      <c r="U5">
         <v>4.1186076597543648</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.2598152424942225</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>36.98706426105349</v>
       </c>
@@ -3465,38 +3485,41 @@
       <c r="C6">
         <v>40</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>33.219178082191704</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J6">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N6">
-        <v>20.9</v>
-      </c>
-      <c r="T6">
+      <c r="K6">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O6">
+        <v>20.9</v>
+      </c>
+      <c r="U6">
         <v>4.7673974501993364</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.58458429561200753</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>50.343228644615088</v>
       </c>
@@ -3506,38 +3529,41 @@
       <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>46.575342465753302</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J7">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N7">
-        <v>20.9</v>
-      </c>
-      <c r="T7">
+      <c r="K7">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O7">
+        <v>20.9</v>
+      </c>
+      <c r="U7">
         <v>4.5185946949943263</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1.0132794457274801</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>71.23363960351918</v>
       </c>
@@ -3547,38 +3573,41 @@
       <c r="C8">
         <v>40</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>67.465753424657393</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J8">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N8">
-        <v>20.9</v>
-      </c>
-      <c r="T8">
+      <c r="K8">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O8">
+        <v>20.9</v>
+      </c>
+      <c r="U8">
         <v>4.1398040446664979</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1.5329099307159326</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>98.973365630916391</v>
       </c>
@@ -3588,38 +3617,41 @@
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>95.205479452054604</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J9">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N9">
-        <v>20.9</v>
-      </c>
-      <c r="T9">
+      <c r="K9">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O9">
+        <v>20.9</v>
+      </c>
+      <c r="U9">
         <v>3.781782558963048</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2.1174942263279428</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>126.02816015146378</v>
       </c>
@@ -3629,38 +3661,41 @@
       <c r="C10">
         <v>40</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>122.26027397260199</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J10">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N10">
-        <v>20.9</v>
-      </c>
-      <c r="T10">
+      <c r="K10">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O10">
+        <v>20.9</v>
+      </c>
+      <c r="U10">
         <v>3.6490680732141225</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2.559180138568125</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>193.4939135761218</v>
       </c>
@@ -3670,38 +3705,41 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>189.72602739726</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.7678861788617888</v>
       </c>
-      <c r="J11">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N11">
-        <v>20.9</v>
-      </c>
-      <c r="T11">
+      <c r="K11">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O11">
+        <v>20.9</v>
+      </c>
+      <c r="U11">
         <v>2.4155334394057073</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2.09151270207852</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>8.6909251089099371</v>
       </c>
@@ -3711,38 +3749,41 @@
       <c r="C12">
         <v>40</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>4.4368600682595298</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J12">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N12">
-        <v>20.9</v>
-      </c>
-      <c r="T12">
+      <c r="K12">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O12">
+        <v>20.9</v>
+      </c>
+      <c r="U12">
         <v>4.2761830024263787</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>0.18173913983737278</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>18.247239102083906</v>
       </c>
@@ -3752,38 +3793,41 @@
       <c r="C13">
         <v>40</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>13.9931740614335</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J13">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N13">
-        <v>20.9</v>
-      </c>
-      <c r="T13">
+      <c r="K13">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O13">
+        <v>20.9</v>
+      </c>
+      <c r="U13">
         <v>4.4665017046973556</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1.167381470093265</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>27.120959238602605</v>
       </c>
@@ -3793,38 +3837,41 @@
       <c r="C14">
         <v>40</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>52</v>
       </c>
       <c r="E14">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>22.866894197952199</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J14">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N14">
-        <v>20.9</v>
-      </c>
-      <c r="T14">
+      <c r="K14">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O14">
+        <v>20.9</v>
+      </c>
+      <c r="U14">
         <v>4.0093238260143442</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1.9326454640537249</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>36.335976303449009</v>
       </c>
@@ -3834,38 +3881,41 @@
       <c r="C15">
         <v>40</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>32.081911262798599</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J15">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N15">
-        <v>20.9</v>
-      </c>
-      <c r="T15">
+      <c r="K15">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O15">
+        <v>20.9</v>
+      </c>
+      <c r="U15">
         <v>3.1680562089017434</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2.1665375662540702</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>53.400822719831311</v>
       </c>
@@ -3875,38 +3925,41 @@
       <c r="C16">
         <v>40</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>49.146757679180901</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J16">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N16">
-        <v>20.9</v>
-      </c>
-      <c r="T16">
+      <c r="K16">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O16">
+        <v>20.9</v>
+      </c>
+      <c r="U16">
         <v>2.4309839292327164</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2.1806042685707978</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>71.489559921196403</v>
       </c>
@@ -3916,38 +3969,41 @@
       <c r="C17">
         <v>40</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>67.235494880546</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J17">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N17">
-        <v>20.9</v>
-      </c>
-      <c r="T17">
+      <c r="K17">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O17">
+        <v>20.9</v>
+      </c>
+      <c r="U17">
         <v>1.6315303689209608</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.572617507588745</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>98.7933141874081</v>
       </c>
@@ -3957,38 +4013,41 @@
       <c r="C18">
         <v>40</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>94.539249146757697</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J18">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N18">
-        <v>20.9</v>
-      </c>
-      <c r="T18">
+      <c r="K18">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O18">
+        <v>20.9</v>
+      </c>
+      <c r="U18">
         <v>0.84858045249366754</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.84858045249366754</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>132.24041316351642</v>
       </c>
@@ -3998,38 +4057,41 @@
       <c r="C19">
         <v>40</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>127.986348122866</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J19">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N19">
-        <v>20.9</v>
-      </c>
-      <c r="T19">
+      <c r="K19">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O19">
+        <v>20.9</v>
+      </c>
+      <c r="U19">
         <v>0.25454980654598003</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.25454980654598003</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>198.1107203307524</v>
       </c>
@@ -4039,38 +4101,41 @@
       <c r="C20">
         <v>40</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>193.856655290102</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.2540650406504072</v>
       </c>
-      <c r="J20">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N20">
-        <v>20.9</v>
-      </c>
-      <c r="T20">
+      <c r="K20">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O20">
+        <v>20.9</v>
+      </c>
+      <c r="U20">
         <v>7.7366862742012751E-2</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>7.7366862742012751E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>6.8513550135501342</v>
       </c>
@@ -4080,38 +4145,41 @@
       <c r="C21">
         <v>40</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>52</v>
       </c>
       <c r="E21">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>2.1111111111111098</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J21">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N21">
-        <v>20.9</v>
-      </c>
-      <c r="T21">
+      <c r="K21">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O21">
+        <v>20.9</v>
+      </c>
+      <c r="U21">
         <v>4.8945076196774098</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.46296866748812004</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>9.6291327913279048</v>
       </c>
@@ -4121,38 +4189,41 @@
       <c r="C22">
         <v>40</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
       <c r="E22">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>4.8888888888888804</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J22">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N22">
-        <v>20.9</v>
-      </c>
-      <c r="T22">
+      <c r="K22">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O22">
+        <v>20.9</v>
+      </c>
+      <c r="U22">
         <v>4.4627115075901944</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1.5822698468579499</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>10.740243902439015</v>
       </c>
@@ -4162,38 +4233,41 @@
       <c r="C23">
         <v>40</v>
       </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="D23" t="s">
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>5.9999999999999902</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J23">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N23">
-        <v>20.9</v>
-      </c>
-      <c r="T23">
+      <c r="K23">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O23">
+        <v>20.9</v>
+      </c>
+      <c r="U23">
         <v>4.1989789140557692</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1.9038461538461526</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>17.629132791327827</v>
       </c>
@@ -4203,38 +4277,41 @@
       <c r="C24">
         <v>40</v>
       </c>
-      <c r="D24">
-        <v>0</v>
+      <c r="D24" t="s">
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>12.8888888888888</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J24">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N24">
-        <v>20.9</v>
-      </c>
-      <c r="T24">
+      <c r="K24">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O24">
+        <v>20.9</v>
+      </c>
+      <c r="U24">
         <v>2.0505382263100436</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1.7608915683858475</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>21.851355013550126</v>
       </c>
@@ -4244,38 +4321,41 @@
       <c r="C25">
         <v>40</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>17.1111111111111</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J25">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N25">
-        <v>20.9</v>
-      </c>
-      <c r="T25">
+      <c r="K25">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O25">
+        <v>20.9</v>
+      </c>
+      <c r="U25">
         <v>1.63392885572109</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1.4768746699524724</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>25.295799457994526</v>
       </c>
@@ -4285,38 +4365,41 @@
       <c r="C26">
         <v>40</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" t="s">
+        <v>52</v>
       </c>
       <c r="E26">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>20.5555555555555</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J26">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N26">
-        <v>20.9</v>
-      </c>
-      <c r="T26">
+      <c r="K26">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O26">
+        <v>20.9</v>
+      </c>
+      <c r="U26">
         <v>1.1603099771281755</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.0771651117760974</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>36.851355013550126</v>
       </c>
@@ -4326,38 +4409,41 @@
       <c r="C27">
         <v>40</v>
       </c>
-      <c r="D27">
-        <v>0</v>
+      <c r="D27" t="s">
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>32.1111111111111</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J27">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N27">
-        <v>20.9</v>
-      </c>
-      <c r="T27">
+      <c r="K27">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O27">
+        <v>20.9</v>
+      </c>
+      <c r="U27">
         <v>0.52138707973948251</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.52138707973948251</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>51.740243902438927</v>
       </c>
@@ -4367,38 +4453,41 @@
       <c r="C28">
         <v>40</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>46.999999999999901</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J28">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N28">
-        <v>20.9</v>
-      </c>
-      <c r="T28">
+      <c r="K28">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O28">
+        <v>20.9</v>
+      </c>
+      <c r="U28">
         <v>0.10653934166520425</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.10653934166520425</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>67.406910569105619</v>
       </c>
@@ -4408,38 +4497,41 @@
       <c r="C29">
         <v>40</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" t="s">
+        <v>52</v>
       </c>
       <c r="E29">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>62.6666666666666</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.7402439024390244</v>
       </c>
-      <c r="J29">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N29">
-        <v>20.9</v>
-      </c>
-      <c r="T29">
+      <c r="K29">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O29">
+        <v>20.9</v>
+      </c>
+      <c r="U29">
         <v>5.194948072522701E-2</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>5.194948072522701E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>7.3876577556512828</v>
       </c>
@@ -4449,38 +4541,41 @@
       <c r="C30">
         <v>40</v>
       </c>
-      <c r="D30">
-        <v>0</v>
+      <c r="D30" t="s">
+        <v>52</v>
       </c>
       <c r="E30">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>2.16123499142364</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J30">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N30">
-        <v>20.9</v>
-      </c>
-      <c r="T30">
+      <c r="K30">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O30">
+        <v>20.9</v>
+      </c>
+      <c r="U30">
         <v>3.3923076487779369</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.7878163756511298</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>8.6843987505055029</v>
       </c>
@@ -4490,38 +4585,41 @@
       <c r="C31">
         <v>40</v>
       </c>
-      <c r="D31">
-        <v>0</v>
+      <c r="D31" t="s">
+        <v>52</v>
       </c>
       <c r="E31">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>3.4579759862778601</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J31">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N31">
-        <v>20.9</v>
-      </c>
-      <c r="T31">
+      <c r="K31">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O31">
+        <v>20.9</v>
+      </c>
+      <c r="U31">
         <v>2.0822664944334681</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.4503679521938799</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>10.598635457195043</v>
       </c>
@@ -4531,38 +4629,41 @@
       <c r="C32">
         <v>40</v>
       </c>
-      <c r="D32">
-        <v>0</v>
+      <c r="D32" t="s">
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>5.3722126929674001</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J32">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N32">
-        <v>20.9</v>
-      </c>
-      <c r="T32">
+      <c r="K32">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O32">
+        <v>20.9</v>
+      </c>
+      <c r="U32">
         <v>1.1211289298594933</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1.0349322390938325</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>12.142374736783381</v>
       </c>
@@ -4572,38 +4673,41 @@
       <c r="C33">
         <v>40</v>
       </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>52</v>
       </c>
       <c r="E33">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>6.9159519725557397</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J33">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N33">
-        <v>20.9</v>
-      </c>
-      <c r="T33">
+      <c r="K33">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O33">
+        <v>20.9</v>
+      </c>
+      <c r="U33">
         <v>0.58145276264155621</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.55482576613891255</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>14.735856726491782</v>
       </c>
@@ -4613,38 +4717,41 @@
       <c r="C34">
         <v>40</v>
       </c>
-      <c r="D34">
-        <v>0</v>
+      <c r="D34" t="s">
+        <v>52</v>
       </c>
       <c r="E34">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>9.50943396226414</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J34">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N34">
-        <v>20.9</v>
-      </c>
-      <c r="T34">
+      <c r="K34">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O34">
+        <v>20.9</v>
+      </c>
+      <c r="U34">
         <v>0.2557929745239525</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.2557929745239525</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>16.65009343318124</v>
       </c>
@@ -4654,38 +4761,41 @@
       <c r="C35">
         <v>40</v>
       </c>
-      <c r="D35">
-        <v>0</v>
+      <c r="D35" t="s">
+        <v>52</v>
       </c>
       <c r="E35">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>11.4236706689536</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J35">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N35">
-        <v>20.9</v>
-      </c>
-      <c r="T35">
+      <c r="K35">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O35">
+        <v>20.9</v>
+      </c>
+      <c r="U35">
         <v>0.112534680778745</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.112534680778745</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>22.454553124433442</v>
       </c>
@@ -4695,38 +4805,41 @@
       <c r="C36">
         <v>40</v>
       </c>
-      <c r="D36">
-        <v>0</v>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>17.2281303602058</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J36">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N36">
-        <v>20.9</v>
-      </c>
-      <c r="T36">
+      <c r="K36">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O36">
+        <v>20.9</v>
+      </c>
+      <c r="U36">
         <v>5.8601623574236247E-2</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>5.8601623574236247E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>29.432254668172643</v>
       </c>
@@ -4736,38 +4849,41 @@
       <c r="C37">
         <v>40</v>
       </c>
-      <c r="D37">
-        <v>0</v>
+      <c r="D37" t="s">
+        <v>52</v>
       </c>
       <c r="E37">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>24.205831903945001</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J37">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N37">
-        <v>20.9</v>
-      </c>
-      <c r="T37">
+      <c r="K37">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O37">
+        <v>20.9</v>
+      </c>
+      <c r="U37">
         <v>4.3128660748868501E-2</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>4.3128660748868501E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>38.879939059253346</v>
       </c>
@@ -4777,34 +4893,37 @@
       <c r="C38">
         <v>40</v>
       </c>
-      <c r="D38">
-        <v>0</v>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
       <c r="E38">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>33.653516295025703</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5.2264227642276424</v>
       </c>
-      <c r="J38">
-        <v>41.137123745819395</v>
-      </c>
-      <c r="N38">
-        <v>20.9</v>
-      </c>
-      <c r="T38">
+      <c r="K38">
+        <v>41.137123745819395</v>
+      </c>
+      <c r="O38">
+        <v>20.9</v>
+      </c>
+      <c r="U38">
         <v>2.6766447186412249E-2</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>2.6766447186412249E-2</v>
       </c>
     </row>
